--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1F7A90-4A99-49BC-BFF9-F5719DDA919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FB61B-FE98-4019-BD12-B253F311398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$10</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +279,22 @@
   </si>
   <si>
     <t>~25.04.30+25.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 성남시 공공데이터 활용분석 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성남시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.seongnam.go.kr/apply/view.do?appIdx=3296#none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +302,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +359,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -374,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -408,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,31 +721,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="38.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="61.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="31.625" style="2"/>
+    <col min="11" max="16384" width="31.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -746,36 +777,36 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>53</v>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -804,140 +835,140 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A8" s="9" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
@@ -946,53 +977,88 @@
         <v>42</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>58</v>
+      <c r="H9" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J10">
+      <sortCondition ref="E1:E10"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
-    <hyperlink ref="I6" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
-    <hyperlink ref="J4" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I6" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
+    <hyperlink ref="I2" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
+    <hyperlink ref="I8" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96FB61B-FE98-4019-BD12-B253F311398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582FCA0-F948-49DE-AC6E-D9B6B6BCB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="5370" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,26 @@
   </si>
   <si>
     <t>https://www.seongnam.go.kr/apply/view.do?appIdx=3296#none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.2025tourapi.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문체부장관상+상금(대상1편1500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 관광데이터 활용 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국관광공사+카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,6 +388,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -402,7 +429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -439,6 +466,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -721,31 +751,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="67.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="61.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="31.58203125" style="2"/>
+    <col min="11" max="16384" width="31.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -777,7 +807,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
@@ -806,7 +836,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -835,7 +865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -864,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -896,21 +926,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>41</v>
@@ -918,132 +948,161 @@
       <c r="G6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J10" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J10">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
       <sortCondition ref="E1:E10"/>
     </sortState>
   </autoFilter>
@@ -1052,13 +1111,14 @@
     <hyperlink ref="I4" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
     <hyperlink ref="I3" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
     <hyperlink ref="I5" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
-    <hyperlink ref="I7" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
-    <hyperlink ref="I6" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
+    <hyperlink ref="I8" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
     <hyperlink ref="I2" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
     <hyperlink ref="J5" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
-    <hyperlink ref="I8" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
+    <hyperlink ref="I9" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B582FCA0-F948-49DE-AC6E-D9B6B6BCB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56632280-0B98-480E-8CA3-7A4219E00D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="5370" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$11</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제1회 공공데이터 분석 및 활용 공모전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방송통신위원회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상장+상금(금상200만)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.kcc.go.kr/user.do?mode=view&amp;page=A05030000&amp;dc=K05030000&amp;boardId=1113&amp;cp=1&amp;nop=10&amp;boardSeq=65829</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +307,390 @@
   </si>
   <si>
     <t>~25.05.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제13회 산업통상자원부 공공데이터활용 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업통상자원부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전력공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://datacontest.kr/www/1?menu=935189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 무역보험 빅데이터 분석과제 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국무역보험공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석아이디어제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ksure.or.kr/rh-kr/bbs/i-412/detail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4회 영천시 공공데이터 활용 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포항테크노파크+경북디지털혁신본부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ycdatacon.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출 / 데이터시각화제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(대상1편800만)+채용우대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 지식재산 데이터 활용 창업 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국특허정보원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특허청장상+상금(최우수1편600만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://plus.kipris.or.kr/portal/ipstar/ipstar.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영천시장상+상금(최우수1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 환경데이터 활용 및 분석 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국환경공단+한국환경산업기술원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나부터(아이디어)+석사생부터(데이터분석)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출 / 데이터분석제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경부장관상+상금(대상1폄500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nibr.go.kr/cmn/board/SYSTEM_DEFAULT000001/66433bbsDetail.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제10회 농림축산식품 공공데이터활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농림수산식품교육문화정보원 외 8곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농림축산식품부장관상+상금(대상1편500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.mafra.go.kr/contest/introduction/introductionNew/screenNew.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 통계데이터 활용대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.kostat.go.kr/sbchome/bbs/boardDetail.do?boardId=SBCSBBS_000000017000&amp;postId=BI_00000000000100585&amp;curMenuNo=OPT_24_03_00_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계데이터센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.04.30+25.07.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문(7쪽)제출 / 포스터(2쪽)제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(대상1편500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국통계진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOSSDA 대학생 공모전 2025 - 데이터로 읽는 한국 사회 : 변화와 미래를 그리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대학교 한국사회과학자료원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.02+25.06.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학생부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT(10쪽)제출+요약문제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(대상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kossda.snu.ac.kr/news?id=1889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 대선 공공데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전정보문화산업진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시 외 8곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.31+25.07.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전광역시장상+상금(대상1편400만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dicia.or.kr/sub.do?contentSubMode=view&amp;menuIdx=MENU_000000000000056&amp;nttIdx=6qE90w62B1miq4AigeY%2BKwG4u3Dcyqms%2FE1VQff35Ws%3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 대학알리미 데이터 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국대학교육협의회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영상제출 / 카드뉴스제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부총리겸교육부장관상+상금(대상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.academyinfo.go.kr/brd/brd0480/selectDetail.do?ntce_sntc_sno=214&amp;bbs_gubun=notice&amp;no=213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 관세청 공공데이터 활용 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.20+25.08.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출 / 제품서비스제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.customs.go.kr/kcs/na/ntt/selectNttInfo.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관세청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제1회 KOFICE 한류 데이터 페어: 내가 바라본 한류 – 대학(원)생 공모전 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국국제문화교류진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kofice.or.kr/g200_online/g200_online_00b_view.asp?bunho=0&amp;find=&amp;page=1&amp;search=&amp;seq=24948&amp;tblID=gongji</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPT(20쪽)제출+보고서제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당+상금(대상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공데이터포털</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.data.go.kr/suc/preliminaryRound.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1회 방통위 공공데이터 분석 및 활용 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방통위원장상+상금(금상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출 / 데이터활용수기제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bigdata.gyeongnam.go.kr/index.gn?menuCd=DOM_000000110009001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도 빅데이터 분석 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도빅데이터센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남도지사상+상장(대상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제11회 2025년 보건의료빅데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건복지부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강보험심사평가원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건복지부장관상+상장(최우수상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://opendata.hira.or.kr/op/ope/selectEduExrGdList.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +698,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,31 +731,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -388,15 +739,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,12 +750,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -446,29 +784,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,374 +1077,808 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.4140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.58203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="61.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="31.625" style="2"/>
+    <col min="11" max="16384" width="31.58203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A8" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A13" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A15" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="10" t="s">
+      <c r="C17" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A18" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="10" t="s">
+      <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="C25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>44</v>
+      <c r="G25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J10" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
-      <sortCondition ref="E1:E10"/>
+  <autoFilter ref="A2:J11" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J26">
+      <sortCondition ref="E2:E11"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
-    <hyperlink ref="I10" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
-    <hyperlink ref="I8" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
-    <hyperlink ref="I11" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
-    <hyperlink ref="I7" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
-    <hyperlink ref="I2" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
-    <hyperlink ref="J5" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
-    <hyperlink ref="I9" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
-    <hyperlink ref="I6" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
+    <hyperlink ref="I6" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
+    <hyperlink ref="I16" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
+    <hyperlink ref="I23" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I11" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
+    <hyperlink ref="I3" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
+    <hyperlink ref="I13" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
+    <hyperlink ref="I9" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
+    <hyperlink ref="I25" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
+    <hyperlink ref="I21" r:id="rId13" xr:uid="{D1D3CF2D-9F58-43E0-B411-B57E4E3C153B}"/>
+    <hyperlink ref="I22" r:id="rId14" xr:uid="{AF0F556C-BC85-435E-BA78-EDBC1A8A8A22}"/>
+    <hyperlink ref="I14" r:id="rId15" xr:uid="{2983B726-39B3-447F-94D5-45B0DA8BF5D0}"/>
+    <hyperlink ref="I15" r:id="rId16" xr:uid="{CC60B2C8-E70D-478F-89B2-51E700395164}"/>
+    <hyperlink ref="I24" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
+    <hyperlink ref="I7" r:id="rId18" xr:uid="{E27FC391-DECF-4E88-B263-4BB570403D21}"/>
+    <hyperlink ref="I8" r:id="rId19" xr:uid="{494DAACC-F985-472A-87D8-2CE2B44488E0}"/>
+    <hyperlink ref="I18" r:id="rId20" xr:uid="{8F832869-4175-43FC-B7F0-559378818C78}"/>
+    <hyperlink ref="I20" r:id="rId21" xr:uid="{CD078083-4318-47D5-991A-F38C1CB662D1}"/>
+    <hyperlink ref="I26" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
+    <hyperlink ref="I10" r:id="rId23" xr:uid="{A163E40F-CEAB-4C6C-872B-E848357A2454}"/>
+    <hyperlink ref="B1" r:id="rId24" xr:uid="{69ED078A-73A4-48AE-A348-C926F98E9B9E}"/>
+    <hyperlink ref="I19" r:id="rId25" xr:uid="{397A6019-74C1-45AB-946E-CE3BE2F0600B}"/>
+    <hyperlink ref="I17" r:id="rId26" xr:uid="{C04027B3-4DC7-4E45-B5B4-E3428F841116}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56632280-0B98-480E-8CA3-7A4219E00D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E334B-1F58-4371-B0A1-F2332D856B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24098" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -790,11 +790,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,15 +1080,15 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="38.4140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.4140625" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.58203125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -1105,11 +1105,11 @@
       <c r="A1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1144,7 +1144,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1202,7 +1202,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1321,7 +1321,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1350,7 +1350,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1379,7 +1379,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1408,7 +1408,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1437,7 +1437,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -1466,7 +1466,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -1495,7 +1495,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1553,7 +1553,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -1582,7 +1582,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -1698,7 +1698,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1756,7 +1756,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -1785,7 +1785,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B26" s="6" t="s">

--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88E334B-1F58-4371-B0A1-F2332D856B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34372D-BD97-4F0B-8593-703E5692A3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="234">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,6 +691,278 @@
   </si>
   <si>
     <t>https://opendata.hira.or.kr/op/ope/selectEduExrGdList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 경상남도 공공데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남도지사상+상금(대상1편150만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bigdata.gyeongnam.go.kr/board/view.gn?boardId=BBS_0000004&amp;menuCd=DOM_000000111003000000&amp;dataSid=18376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경상남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시장상+상금(최우수상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ccei.creativekorea.or.kr/gwangju/service/program_view.do?no=9896&amp;rnum=1&amp;sMenuType=00040001&amp;mainGo=Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주창조경제혁신센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 11회 광주광역시 공공데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시 빅데이터 활용대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산테크노파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.02+25.07.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시장상+상금(최우수상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dxchallenge.co.kr/events/bigdataanalysis2025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시교육청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.sen.go.kr/public/main#menu_code=43&amp;type=portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제7회 서울교육 데이터분석활용 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제12회 해양수산 비즈니스/공공서비스 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양수산부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산항만공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양수산부장관상+상금(대상1편500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mof.go.kr/doc/ko/selectDoc.do?docSeq=61342&amp;menuSeq=375&amp;bbsSeq=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출 / 데이터분석제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제9회 개방형 클라우드 플랫폼 활용 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동화기반 아이디어제출 / 서비스개발 / 우수사례발굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술정보통신부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국지능정보사회진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.10.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과학기술정보통신부장관상+상금(금상1편500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contest.k-paas.org/info.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 부산광역시 공공빅데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산광역시장상+상금(최우수상1편250만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbnews/1676994?curPage=&amp;srchBeginDt=2024-04-16&amp;srchEndDt=2025-04-16&amp;srchKey=&amp;srchText=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 공공데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산정보산업진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.ulsan.go.kr/portal/contents.do?mId=0010050020000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제11회 인천광역시 공공데이터 활용 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시장상+상금(최우수상1편700만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산광역시장상+상금(대상1편250만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://data.incheon.go.kr/communicate/noticeDetail?menuId=MF040304&amp;pstId=3872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제3회 융·복합 데이터 활용 창업경진대회 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출 / 융복합데이터발굴활용 / 분석과제발굴기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bigtori.kalis.or.kr/contest/data-utilization-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국토안전관리원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국토안전관리원장상+상금(원장상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보건복지부+한국보건의료정보원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울성모병원+서울아산병원 등 5개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천대+인하대+인천도시공사 등 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병원장상+상금(대상1편400만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mdac-acnethon.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 의료데이터중심병원 Data &amp; AI 경진대회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -795,6 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1077,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1322,77 +1597,77 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
@@ -1401,56 +1676,56 @@
         <v>41</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -1459,317 +1734,317 @@
         <v>41</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>103</v>
+        <v>230</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="I16" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A22" s="8" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>40</v>
@@ -1778,73 +2053,392 @@
         <v>41</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A25" s="8" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J26">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J37">
       <sortCondition ref="E2:E11"/>
     </sortState>
   </autoFilter>
@@ -1856,29 +2450,40 @@
     <hyperlink ref="I5" r:id="rId1" xr:uid="{471CC786-BB36-468A-A1E1-F5914E7895CD}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{3F4C5D49-6BD9-409E-B136-CF8DCDD72140}"/>
     <hyperlink ref="I6" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
-    <hyperlink ref="I16" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
-    <hyperlink ref="I12" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
-    <hyperlink ref="I23" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
-    <hyperlink ref="I11" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
+    <hyperlink ref="I20" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
+    <hyperlink ref="I14" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
+    <hyperlink ref="I32" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
     <hyperlink ref="I3" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
     <hyperlink ref="J6" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
-    <hyperlink ref="I13" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
-    <hyperlink ref="I9" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
-    <hyperlink ref="I25" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
-    <hyperlink ref="I21" r:id="rId13" xr:uid="{D1D3CF2D-9F58-43E0-B411-B57E4E3C153B}"/>
-    <hyperlink ref="I22" r:id="rId14" xr:uid="{AF0F556C-BC85-435E-BA78-EDBC1A8A8A22}"/>
-    <hyperlink ref="I14" r:id="rId15" xr:uid="{2983B726-39B3-447F-94D5-45B0DA8BF5D0}"/>
-    <hyperlink ref="I15" r:id="rId16" xr:uid="{CC60B2C8-E70D-478F-89B2-51E700395164}"/>
-    <hyperlink ref="I24" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
+    <hyperlink ref="I16" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
+    <hyperlink ref="I11" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
+    <hyperlink ref="I35" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
+    <hyperlink ref="I28" r:id="rId13" xr:uid="{D1D3CF2D-9F58-43E0-B411-B57E4E3C153B}"/>
+    <hyperlink ref="I29" r:id="rId14" xr:uid="{AF0F556C-BC85-435E-BA78-EDBC1A8A8A22}"/>
+    <hyperlink ref="I17" r:id="rId15" xr:uid="{2983B726-39B3-447F-94D5-45B0DA8BF5D0}"/>
+    <hyperlink ref="I19" r:id="rId16" xr:uid="{CC60B2C8-E70D-478F-89B2-51E700395164}"/>
+    <hyperlink ref="I33" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
     <hyperlink ref="I7" r:id="rId18" xr:uid="{E27FC391-DECF-4E88-B263-4BB570403D21}"/>
     <hyperlink ref="I8" r:id="rId19" xr:uid="{494DAACC-F985-472A-87D8-2CE2B44488E0}"/>
-    <hyperlink ref="I18" r:id="rId20" xr:uid="{8F832869-4175-43FC-B7F0-559378818C78}"/>
-    <hyperlink ref="I20" r:id="rId21" xr:uid="{CD078083-4318-47D5-991A-F38C1CB662D1}"/>
-    <hyperlink ref="I26" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
-    <hyperlink ref="I10" r:id="rId23" xr:uid="{A163E40F-CEAB-4C6C-872B-E848357A2454}"/>
+    <hyperlink ref="I22" r:id="rId20" xr:uid="{8F832869-4175-43FC-B7F0-559378818C78}"/>
+    <hyperlink ref="I25" r:id="rId21" xr:uid="{CD078083-4318-47D5-991A-F38C1CB662D1}"/>
+    <hyperlink ref="I36" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
+    <hyperlink ref="I12" r:id="rId23" xr:uid="{A163E40F-CEAB-4C6C-872B-E848357A2454}"/>
     <hyperlink ref="B1" r:id="rId24" xr:uid="{69ED078A-73A4-48AE-A348-C926F98E9B9E}"/>
-    <hyperlink ref="I19" r:id="rId25" xr:uid="{397A6019-74C1-45AB-946E-CE3BE2F0600B}"/>
-    <hyperlink ref="I17" r:id="rId26" xr:uid="{C04027B3-4DC7-4E45-B5B4-E3428F841116}"/>
+    <hyperlink ref="I24" r:id="rId25" xr:uid="{397A6019-74C1-45AB-946E-CE3BE2F0600B}"/>
+    <hyperlink ref="I21" r:id="rId26" xr:uid="{C04027B3-4DC7-4E45-B5B4-E3428F841116}"/>
+    <hyperlink ref="I27" r:id="rId27" xr:uid="{8E0B22BE-2240-46D5-9689-EF27B53DD1E1}"/>
+    <hyperlink ref="I18" r:id="rId28" xr:uid="{35D67202-8549-40AD-8D3D-839B1CEB343A}"/>
+    <hyperlink ref="I9" r:id="rId29" xr:uid="{3F19C26C-C39B-4287-978D-E2245EC6BAD4}"/>
+    <hyperlink ref="I23" r:id="rId30" location="menu_code=43&amp;type=portal" xr:uid="{E24C1A45-250C-46B7-BC4A-E4E04D317E6B}"/>
+    <hyperlink ref="I30" r:id="rId31" xr:uid="{84569E1A-EE54-45C9-9326-EAA384CF9814}"/>
+    <hyperlink ref="I37" r:id="rId32" xr:uid="{AA7FBB5C-42A5-482C-9256-12C7772333DD}"/>
+    <hyperlink ref="I31" r:id="rId33" xr:uid="{F9F49C8C-C852-4C72-97FA-DF172784C0D1}"/>
+    <hyperlink ref="I34" r:id="rId34" xr:uid="{71944C8B-B6BA-428B-91D8-4E5EE88FC530}"/>
+    <hyperlink ref="I26" r:id="rId35" xr:uid="{E47B202A-02AF-48EB-B0EB-3A29177C1149}"/>
+    <hyperlink ref="I10" r:id="rId36" xr:uid="{F97823A3-4CDF-47DD-8090-4C4C72DFA48A}"/>
+    <hyperlink ref="I15" r:id="rId37" xr:uid="{71804AB0-74EF-4132-9604-923B632EC860}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEBA]\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA34372D-BD97-4F0B-8593-703E5692A3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEA4EF-8ABB-48AB-80C2-BBC39E326E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="295">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,10 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2025년 대선 공공데이터 활용 창업경진대회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대전정보문화산업진흥원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,6 +959,254 @@
   </si>
   <si>
     <t>2025년 의료데이터중심병원 Data &amp; AI 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 대전 공공데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 충청북도 공공데이터 활용 창업경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북과학기술혁신원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.29+25.07.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구나부터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석아이디어제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도지사상+상금(최우수상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cbist.or.kr/home/sub.do?mncd=1131&amp;mode=view&amp;no=57748701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 외교 공공데이터 활용 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외교부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국국제협력단 외 2곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.14+25.07.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장관상+상금(최우수상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://overseas.mofa.go.kr/www/brd/m_4080/view.do?seq=376089</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 충북혁신도시 공공데이터 분석활용 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국소비자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국고용정보원 외 1곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수상3편100만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kgs.or.kr/kgs/aga/board.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 캠퍼스 특허 유니버시아드 대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가과학기술연구회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한상공회의소 외 3곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대통령상+상금(대통령상1편2000만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터분석발명사업화부문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.05.30+25.08.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kipo.go.kr/ko/kpoBultnDetail.do?aprchId=BUT0000021&amp;menuCd=SCD0200610&amp;ntatcSeq=19977&amp;sysCd=SCD02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 병무청+방위사업청+질병관리청 합동 데이터 분석 및 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방위사업청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방위사업청 외 2곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.07+25.07.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터활용아이디어제출 / 데이터분석제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병무청장상+상금(대상1편200만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dapa.go.kr/dapa/na/ntt/selectNttInfo.do?bbsId=443&amp;menuId=356&amp;nttSn=54739</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 제11회 DB GAPS 투자대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB김준기문화재단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB증권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.06+25.06.30+25.09.30+25.10.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(대상1편500만+입사우대)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dbgaps.dbsec.co.kr/introduction/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 FIN:NECT 챌린지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국핀테크지원센터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.18+25.07.17+25.08.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디어제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(대상1편500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fintech.or.kr/web/board/boardContentsView.do?board_id=3&amp;contents_id=2cce7704b5d44c9daf3e6dd5091c1349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mpva.go.kr/mpva/contents.do?key=2093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수상1편100만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 보훈 공공데이터 활용 및 데이터 분석 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가보훈부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 기상청 날씨 빅데이터 콘테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경부 외 2곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.09+25.06.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경부장관상+상금(최우수상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bd.kma.go.kr/contest/main.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,6 +1266,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1065,11 +1321,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1352,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1378,13 +1640,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -1419,7 +1681,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1448,7 +1710,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1477,7 +1739,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1506,7 +1768,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1538,7 +1800,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1597,19 +1859,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -1618,43 +1880,43 @@
         <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1684,31 +1946,31 @@
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>121</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.45">
@@ -1771,35 +2033,35 @@
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="H15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -1858,31 +2120,31 @@
     </row>
     <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.45">
@@ -1945,500 +2207,761 @@
     </row>
     <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>125</v>
+      <c r="A22" s="12" t="s">
+        <v>255</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>128</v>
+        <v>260</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
-        <v>131</v>
-      </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A27" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="D27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="8" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
-        <v>105</v>
+      <c r="A33" s="12" t="s">
+        <v>276</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>71</v>
+        <v>277</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>106</v>
+        <v>278</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>106</v>
+        <v>279</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>107</v>
+        <v>280</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A35" s="8" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>89</v>
+        <v>207</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A36" s="8" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>142</v>
+        <v>237</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" s="8" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>199</v>
+        <v>37</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A41" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+      <c r="A43" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="D46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J37">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J46">
       <sortCondition ref="E2:E11"/>
     </sortState>
   </autoFilter>
@@ -2452,38 +2975,47 @@
     <hyperlink ref="I6" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
     <hyperlink ref="I20" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
     <hyperlink ref="I14" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
-    <hyperlink ref="I32" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I37" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
     <hyperlink ref="I13" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
     <hyperlink ref="I3" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
     <hyperlink ref="J6" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
     <hyperlink ref="I16" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
     <hyperlink ref="I11" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
-    <hyperlink ref="I35" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
-    <hyperlink ref="I28" r:id="rId13" xr:uid="{D1D3CF2D-9F58-43E0-B411-B57E4E3C153B}"/>
-    <hyperlink ref="I29" r:id="rId14" xr:uid="{AF0F556C-BC85-435E-BA78-EDBC1A8A8A22}"/>
+    <hyperlink ref="I43" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
+    <hyperlink ref="I31" r:id="rId13" xr:uid="{D1D3CF2D-9F58-43E0-B411-B57E4E3C153B}"/>
+    <hyperlink ref="I32" r:id="rId14" xr:uid="{AF0F556C-BC85-435E-BA78-EDBC1A8A8A22}"/>
     <hyperlink ref="I17" r:id="rId15" xr:uid="{2983B726-39B3-447F-94D5-45B0DA8BF5D0}"/>
     <hyperlink ref="I19" r:id="rId16" xr:uid="{CC60B2C8-E70D-478F-89B2-51E700395164}"/>
-    <hyperlink ref="I33" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
+    <hyperlink ref="I38" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
     <hyperlink ref="I7" r:id="rId18" xr:uid="{E27FC391-DECF-4E88-B263-4BB570403D21}"/>
     <hyperlink ref="I8" r:id="rId19" xr:uid="{494DAACC-F985-472A-87D8-2CE2B44488E0}"/>
-    <hyperlink ref="I22" r:id="rId20" xr:uid="{8F832869-4175-43FC-B7F0-559378818C78}"/>
-    <hyperlink ref="I25" r:id="rId21" xr:uid="{CD078083-4318-47D5-991A-F38C1CB662D1}"/>
-    <hyperlink ref="I36" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
+    <hyperlink ref="I23" r:id="rId20" xr:uid="{8F832869-4175-43FC-B7F0-559378818C78}"/>
+    <hyperlink ref="I26" r:id="rId21" xr:uid="{CD078083-4318-47D5-991A-F38C1CB662D1}"/>
+    <hyperlink ref="I45" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
     <hyperlink ref="I12" r:id="rId23" xr:uid="{A163E40F-CEAB-4C6C-872B-E848357A2454}"/>
     <hyperlink ref="B1" r:id="rId24" xr:uid="{69ED078A-73A4-48AE-A348-C926F98E9B9E}"/>
-    <hyperlink ref="I24" r:id="rId25" xr:uid="{397A6019-74C1-45AB-946E-CE3BE2F0600B}"/>
+    <hyperlink ref="I25" r:id="rId25" xr:uid="{397A6019-74C1-45AB-946E-CE3BE2F0600B}"/>
     <hyperlink ref="I21" r:id="rId26" xr:uid="{C04027B3-4DC7-4E45-B5B4-E3428F841116}"/>
-    <hyperlink ref="I27" r:id="rId27" xr:uid="{8E0B22BE-2240-46D5-9689-EF27B53DD1E1}"/>
+    <hyperlink ref="I29" r:id="rId27" xr:uid="{8E0B22BE-2240-46D5-9689-EF27B53DD1E1}"/>
     <hyperlink ref="I18" r:id="rId28" xr:uid="{35D67202-8549-40AD-8D3D-839B1CEB343A}"/>
     <hyperlink ref="I9" r:id="rId29" xr:uid="{3F19C26C-C39B-4287-978D-E2245EC6BAD4}"/>
-    <hyperlink ref="I23" r:id="rId30" location="menu_code=43&amp;type=portal" xr:uid="{E24C1A45-250C-46B7-BC4A-E4E04D317E6B}"/>
-    <hyperlink ref="I30" r:id="rId31" xr:uid="{84569E1A-EE54-45C9-9326-EAA384CF9814}"/>
-    <hyperlink ref="I37" r:id="rId32" xr:uid="{AA7FBB5C-42A5-482C-9256-12C7772333DD}"/>
-    <hyperlink ref="I31" r:id="rId33" xr:uid="{F9F49C8C-C852-4C72-97FA-DF172784C0D1}"/>
-    <hyperlink ref="I34" r:id="rId34" xr:uid="{71944C8B-B6BA-428B-91D8-4E5EE88FC530}"/>
-    <hyperlink ref="I26" r:id="rId35" xr:uid="{E47B202A-02AF-48EB-B0EB-3A29177C1149}"/>
+    <hyperlink ref="I24" r:id="rId30" location="menu_code=43&amp;type=portal" xr:uid="{E24C1A45-250C-46B7-BC4A-E4E04D317E6B}"/>
+    <hyperlink ref="I34" r:id="rId31" xr:uid="{84569E1A-EE54-45C9-9326-EAA384CF9814}"/>
+    <hyperlink ref="I46" r:id="rId32" xr:uid="{AA7FBB5C-42A5-482C-9256-12C7772333DD}"/>
+    <hyperlink ref="I35" r:id="rId33" xr:uid="{F9F49C8C-C852-4C72-97FA-DF172784C0D1}"/>
+    <hyperlink ref="I40" r:id="rId34" xr:uid="{71944C8B-B6BA-428B-91D8-4E5EE88FC530}"/>
+    <hyperlink ref="I27" r:id="rId35" xr:uid="{E47B202A-02AF-48EB-B0EB-3A29177C1149}"/>
     <hyperlink ref="I10" r:id="rId36" xr:uid="{F97823A3-4CDF-47DD-8090-4C4C72DFA48A}"/>
     <hyperlink ref="I15" r:id="rId37" xr:uid="{71804AB0-74EF-4132-9604-923B632EC860}"/>
+    <hyperlink ref="I36" r:id="rId38" xr:uid="{8A5127B0-7A46-4D40-B20E-2ACD7DA734FD}"/>
+    <hyperlink ref="I44" r:id="rId39" xr:uid="{1ADA7200-AD1C-4187-AF66-E15F2D6DE77C}"/>
+    <hyperlink ref="I39" r:id="rId40" xr:uid="{4401E363-B03F-43B0-8A87-2EFC30C4B4D0}"/>
+    <hyperlink ref="I22" r:id="rId41" xr:uid="{9B918245-C1D4-4DBC-8433-3DDAAB38820E}"/>
+    <hyperlink ref="I42" r:id="rId42" xr:uid="{AEF8CA05-8ABD-4CB1-AAFC-4B40511D464D}"/>
+    <hyperlink ref="I28" r:id="rId43" xr:uid="{5C3B0512-DED1-48C0-A48D-0D4094E8E047}"/>
+    <hyperlink ref="I33" r:id="rId44" xr:uid="{B5686F6F-3D91-40C7-AF05-FBA0FDB68C8A}"/>
+    <hyperlink ref="I41" r:id="rId45" xr:uid="{FD1202AD-02E5-4E15-B7AB-DA0485C16EB7}"/>
+    <hyperlink ref="I30" r:id="rId46" xr:uid="{B8008BDC-5D07-4500-BDCA-A6E67C206F44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/List_Competitions_KK.xlsx
+++ b/Project/List_Competitions_KK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BEA4EF-8ABB-48AB-80C2-BBC39E326E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C95512-47A2-49CE-9F25-4827632A1F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="323">
   <si>
     <t>주최</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1207,118 @@
   </si>
   <si>
     <t>https://bd.kma.go.kr/contest/main.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문화체육관광부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국콘텐츠진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.30+25.08.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주제분석제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(대상1편300만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kocca.kr/gameguide/bbs/view/B0158943/2008886.do?searchCnd=&amp;searchWrd=&amp;cateTp1=&amp;cateTp2=&amp;useYn=&amp;menuNo=203701&amp;categorys=0&amp;subcate=0&amp;cateCode=&amp;type=&amp;instNo=0&amp;questionTp=&amp;ufSetting=&amp;recovery=&amp;option1=&amp;option2=&amp;year=&amp;morePage=&amp;qtp=&amp;domainId=&amp;sortCode=&amp;pageIndex=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국토지주택공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대자동차+한국건설기술연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LH사장상+상금(최우수상1편500만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://compas.lh.or.kr/main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 한국토지주택공사 COMPAS 국토도시데이터분석 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 한국콘텐츠진흥원 게임이용자 패널데이터 경진대회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025 문화 디지털혁신 및 데이터 활용 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국문화정보원 외5곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.07.07+25.07.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최소300만이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://culture.go.kr/digicon/pages/notice_view?noticeNo=60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025년 한국수력원자력 공공데이터 활용 비즈니스 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국수력원자력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~25.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터활용아이디어제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상장+상금(최우수상1편150만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.khnp.co.kr/main/selectWebEventManageView.do?key=382&amp;ntcobSeq=261</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제1회 법령데이터 활용 아이디어 공모전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법제처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법제처장상+상금(최우수상1편50만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moleg.go.kr/board.es?act=view&amp;bid=0010&amp;cg_code=&amp;keyField=&amp;keyWord=&amp;list_no=295042&amp;mid=a10504000000&amp;nPage=1&amp;pageCntBySelf=10&amp;tag=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1324,14 +1436,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1614,41 +1726,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="31.59765625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.4140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.58203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="71.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="31.58203125" style="2"/>
+    <col min="1" max="1" width="38.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.296875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="71.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.69921875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="31.59765625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1680,8 +1792,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1709,8 +1821,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1738,8 +1850,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1767,8 +1879,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1799,8 +1911,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1828,7 +1940,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>118</v>
       </c>
@@ -1857,7 +1969,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>177</v>
       </c>
@@ -1886,7 +1998,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>220</v>
       </c>
@@ -1915,8 +2027,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -1944,7 +2056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>143</v>
       </c>
@@ -1973,7 +2085,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
@@ -2002,7 +2114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -2031,7 +2143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>232</v>
       </c>
@@ -2060,8 +2172,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2089,7 +2201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>90</v>
       </c>
@@ -2118,7 +2230,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>176</v>
       </c>
@@ -2147,7 +2259,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>97</v>
       </c>
@@ -2176,7 +2288,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>159</v>
       </c>
@@ -2234,8 +2346,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
         <v>255</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -2263,7 +2375,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>233</v>
       </c>
@@ -2292,8 +2404,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
         <v>188</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -2321,7 +2433,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>154</v>
       </c>
@@ -2350,7 +2462,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>130</v>
       </c>
@@ -2379,8 +2491,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
         <v>214</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2408,8 +2520,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
         <v>269</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -2437,7 +2549,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>165</v>
       </c>
@@ -2466,7 +2578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>289</v>
       </c>
@@ -2495,8 +2607,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -2524,7 +2636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>82</v>
       </c>
@@ -2553,415 +2665,560 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A35" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
+    <row r="37" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
+    <row r="38" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I39" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
+    <row r="40" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I40" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A41" s="12" t="s">
+    <row r="45" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A45" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
+    <row r="46" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="34" x14ac:dyDescent="0.45">
-      <c r="A43" s="12" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="12" t="s">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J11" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J46">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J51">
       <sortCondition ref="E2:E11"/>
     </sortState>
   </autoFilter>
@@ -2975,23 +3232,23 @@
     <hyperlink ref="I6" r:id="rId3" xr:uid="{F18BD361-2C46-4EBF-A3A5-989961805554}"/>
     <hyperlink ref="I20" r:id="rId4" xr:uid="{10971181-02E8-41B6-A876-2027E659E575}"/>
     <hyperlink ref="I14" r:id="rId5" xr:uid="{D9A068F2-8113-406C-B1FF-C6E244339D18}"/>
-    <hyperlink ref="I37" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
+    <hyperlink ref="I38" r:id="rId6" xr:uid="{E8192E3A-B430-44F1-A458-9EA020C73A12}"/>
     <hyperlink ref="I13" r:id="rId7" xr:uid="{62C4513C-447E-4714-AB3C-DFA91FD0F421}"/>
     <hyperlink ref="I3" r:id="rId8" xr:uid="{A348A6E5-9A4E-425D-8B9F-C75C1B7FBFA5}"/>
     <hyperlink ref="J6" r:id="rId9" xr:uid="{FDC44589-EF32-4DB6-A693-CC84D785542E}"/>
     <hyperlink ref="I16" r:id="rId10" location="none" xr:uid="{23A66582-AEAD-4D3F-922B-AC333B4205D6}"/>
     <hyperlink ref="I11" r:id="rId11" xr:uid="{2E80B1BD-B859-4061-8F21-1DA92015823A}"/>
-    <hyperlink ref="I43" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
+    <hyperlink ref="I48" r:id="rId12" xr:uid="{17A6E478-4EE4-48BD-AF76-637C493CD1C8}"/>
     <hyperlink ref="I31" r:id="rId13" xr:uid="{D1D3CF2D-9F58-43E0-B411-B57E4E3C153B}"/>
     <hyperlink ref="I32" r:id="rId14" xr:uid="{AF0F556C-BC85-435E-BA78-EDBC1A8A8A22}"/>
     <hyperlink ref="I17" r:id="rId15" xr:uid="{2983B726-39B3-447F-94D5-45B0DA8BF5D0}"/>
     <hyperlink ref="I19" r:id="rId16" xr:uid="{CC60B2C8-E70D-478F-89B2-51E700395164}"/>
-    <hyperlink ref="I38" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
+    <hyperlink ref="I39" r:id="rId17" xr:uid="{E3DC797F-31E1-4476-AA9F-95979CED1A6B}"/>
     <hyperlink ref="I7" r:id="rId18" xr:uid="{E27FC391-DECF-4E88-B263-4BB570403D21}"/>
     <hyperlink ref="I8" r:id="rId19" xr:uid="{494DAACC-F985-472A-87D8-2CE2B44488E0}"/>
     <hyperlink ref="I23" r:id="rId20" xr:uid="{8F832869-4175-43FC-B7F0-559378818C78}"/>
     <hyperlink ref="I26" r:id="rId21" xr:uid="{CD078083-4318-47D5-991A-F38C1CB662D1}"/>
-    <hyperlink ref="I45" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
+    <hyperlink ref="I50" r:id="rId22" xr:uid="{2F1A5E9F-1646-4435-AD5F-C1C9F4B10978}"/>
     <hyperlink ref="I12" r:id="rId23" xr:uid="{A163E40F-CEAB-4C6C-872B-E848357A2454}"/>
     <hyperlink ref="B1" r:id="rId24" xr:uid="{69ED078A-73A4-48AE-A348-C926F98E9B9E}"/>
     <hyperlink ref="I25" r:id="rId25" xr:uid="{397A6019-74C1-45AB-946E-CE3BE2F0600B}"/>
@@ -3000,22 +3257,27 @@
     <hyperlink ref="I18" r:id="rId28" xr:uid="{35D67202-8549-40AD-8D3D-839B1CEB343A}"/>
     <hyperlink ref="I9" r:id="rId29" xr:uid="{3F19C26C-C39B-4287-978D-E2245EC6BAD4}"/>
     <hyperlink ref="I24" r:id="rId30" location="menu_code=43&amp;type=portal" xr:uid="{E24C1A45-250C-46B7-BC4A-E4E04D317E6B}"/>
-    <hyperlink ref="I34" r:id="rId31" xr:uid="{84569E1A-EE54-45C9-9326-EAA384CF9814}"/>
-    <hyperlink ref="I46" r:id="rId32" xr:uid="{AA7FBB5C-42A5-482C-9256-12C7772333DD}"/>
-    <hyperlink ref="I35" r:id="rId33" xr:uid="{F9F49C8C-C852-4C72-97FA-DF172784C0D1}"/>
-    <hyperlink ref="I40" r:id="rId34" xr:uid="{71944C8B-B6BA-428B-91D8-4E5EE88FC530}"/>
+    <hyperlink ref="I35" r:id="rId31" xr:uid="{84569E1A-EE54-45C9-9326-EAA384CF9814}"/>
+    <hyperlink ref="I51" r:id="rId32" xr:uid="{AA7FBB5C-42A5-482C-9256-12C7772333DD}"/>
+    <hyperlink ref="I36" r:id="rId33" xr:uid="{F9F49C8C-C852-4C72-97FA-DF172784C0D1}"/>
+    <hyperlink ref="I44" r:id="rId34" xr:uid="{71944C8B-B6BA-428B-91D8-4E5EE88FC530}"/>
     <hyperlink ref="I27" r:id="rId35" xr:uid="{E47B202A-02AF-48EB-B0EB-3A29177C1149}"/>
     <hyperlink ref="I10" r:id="rId36" xr:uid="{F97823A3-4CDF-47DD-8090-4C4C72DFA48A}"/>
     <hyperlink ref="I15" r:id="rId37" xr:uid="{71804AB0-74EF-4132-9604-923B632EC860}"/>
-    <hyperlink ref="I36" r:id="rId38" xr:uid="{8A5127B0-7A46-4D40-B20E-2ACD7DA734FD}"/>
-    <hyperlink ref="I44" r:id="rId39" xr:uid="{1ADA7200-AD1C-4187-AF66-E15F2D6DE77C}"/>
-    <hyperlink ref="I39" r:id="rId40" xr:uid="{4401E363-B03F-43B0-8A87-2EFC30C4B4D0}"/>
+    <hyperlink ref="I37" r:id="rId38" xr:uid="{8A5127B0-7A46-4D40-B20E-2ACD7DA734FD}"/>
+    <hyperlink ref="I49" r:id="rId39" xr:uid="{1ADA7200-AD1C-4187-AF66-E15F2D6DE77C}"/>
+    <hyperlink ref="I40" r:id="rId40" xr:uid="{4401E363-B03F-43B0-8A87-2EFC30C4B4D0}"/>
     <hyperlink ref="I22" r:id="rId41" xr:uid="{9B918245-C1D4-4DBC-8433-3DDAAB38820E}"/>
-    <hyperlink ref="I42" r:id="rId42" xr:uid="{AEF8CA05-8ABD-4CB1-AAFC-4B40511D464D}"/>
+    <hyperlink ref="I46" r:id="rId42" xr:uid="{AEF8CA05-8ABD-4CB1-AAFC-4B40511D464D}"/>
     <hyperlink ref="I28" r:id="rId43" xr:uid="{5C3B0512-DED1-48C0-A48D-0D4094E8E047}"/>
-    <hyperlink ref="I33" r:id="rId44" xr:uid="{B5686F6F-3D91-40C7-AF05-FBA0FDB68C8A}"/>
-    <hyperlink ref="I41" r:id="rId45" xr:uid="{FD1202AD-02E5-4E15-B7AB-DA0485C16EB7}"/>
+    <hyperlink ref="I34" r:id="rId44" xr:uid="{B5686F6F-3D91-40C7-AF05-FBA0FDB68C8A}"/>
+    <hyperlink ref="I45" r:id="rId45" xr:uid="{FD1202AD-02E5-4E15-B7AB-DA0485C16EB7}"/>
     <hyperlink ref="I30" r:id="rId46" xr:uid="{B8008BDC-5D07-4500-BDCA-A6E67C206F44}"/>
+    <hyperlink ref="I43" r:id="rId47" display="https://www.kocca.kr/gameguide/bbs/view/B0158943/2008886.do?searchCnd=&amp;searchWrd=&amp;cateTp1=&amp;cateTp2=&amp;useYn=&amp;menuNo=203701&amp;categorys=0&amp;subcate=0&amp;cateCode=&amp;type=&amp;instNo=0&amp;questionTp=&amp;ufSetting=&amp;recovery=&amp;option1=&amp;option2=&amp;year=&amp;morePage=&amp;qtp=&amp;domainId=&amp;sortCode=&amp;pageIndex=1" xr:uid="{E12FDFB1-827B-4164-BAFB-EFE1AFE22D4F}"/>
+    <hyperlink ref="I33" r:id="rId48" xr:uid="{B655E9E0-95EF-4A75-9304-89BA2FADB976}"/>
+    <hyperlink ref="I47" r:id="rId49" xr:uid="{A57649C4-6132-45C8-9BC9-EBE80CD21B84}"/>
+    <hyperlink ref="I41" r:id="rId50" xr:uid="{C6DB1D38-5D81-46F1-B49C-D13C063E9482}"/>
+    <hyperlink ref="I42" r:id="rId51" xr:uid="{348B430C-F4C1-4C48-9AC7-5B13644DD810}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
